--- a/data/outputs/management_elsevier/35.xlsx
+++ b/data/outputs/management_elsevier/35.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS27"/>
+  <dimension ref="A1:BU27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +939,12 @@
           <t>2-s2.0-84952990817</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2770</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1155,6 +1171,12 @@
         <is>
           <t>2-s2.0-84952983922</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>2893</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1347,6 +1369,12 @@
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="inlineStr"/>
       <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1562,6 +1590,12 @@
           <t>2-s2.0-84952988699</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>2083</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1777,6 +1811,12 @@
           <t>2-s2.0-84952975790</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1930</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1987,6 +2027,12 @@
         <is>
           <t>2-s2.0-84952977383</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>1584</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -2195,6 +2241,12 @@
           <t>2-s2.0-84942035781</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>5747</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2410,6 +2462,12 @@
           <t>2-s2.0-84942028212</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1647</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2624,6 +2682,12 @@
         <is>
           <t>2-s2.0-84942020378</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>2922</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -2816,6 +2880,12 @@
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="inlineStr"/>
       <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3023,6 +3093,12 @@
           <t>2-s2.0-84941876104</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>968</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3237,6 +3313,12 @@
         <is>
           <t>2-s2.0-84941874183</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>2828</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -3445,6 +3527,12 @@
           <t>2-s2.0-84941877724</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>1374</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3659,6 +3747,12 @@
         <is>
           <t>2-s2.0-84941880889</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>1951</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -3873,6 +3967,12 @@
           <t>2-s2.0-84951780348</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>6081</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4095,6 +4195,12 @@
         <is>
           <t>2-s2.0-84951833352</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>1732</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -4291,6 +4397,12 @@
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
       <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4498,6 +4610,12 @@
           <t>2-s2.0-84951780772</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>1894</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4723,6 +4841,12 @@
           <t>2-s2.0-84951744300</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>792</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4937,6 +5061,12 @@
         <is>
           <t>2-s2.0-84951770306</t>
         </is>
+      </c>
+      <c r="BT21" t="n">
+        <v>1786</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -5145,6 +5275,12 @@
           <t>2-s2.0-84924333956</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>3295</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5360,6 +5496,12 @@
           <t>2-s2.0-84924338929</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>1363</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5575,6 +5717,12 @@
           <t>2-s2.0-84924479232</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>3411</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5787,6 +5935,12 @@
         <is>
           <t>2-s2.0-84924496978</t>
         </is>
+      </c>
+      <c r="BT25" t="n">
+        <v>3319</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="26">
@@ -5979,6 +6133,12 @@
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="inlineStr"/>
       <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6190,6 +6350,12 @@
           <t>2-s2.0-84924339588</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2513</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
